--- a/2018-Personal-Robot book.xlsx
+++ b/2018-Personal-Robot book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole Tucker\Documents\Github\2018-Personal-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{611A124B-2C23-4E97-9224-AB24D96DDF82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{147E1E40-8F0C-4B8A-A239-9CD7B3E9C747}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="1" xr2:uid="{D1A9F26E-08B2-41DE-A4F3-4A63F101E18F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{D1A9F26E-08B2-41DE-A4F3-4A63F101E18F}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Motor</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Ext. Cost</t>
   </si>
 </sst>
 </file>
@@ -170,13 +173,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80474503-D0B3-41C8-932C-8F3FB8D90DA9}">
-  <dimension ref="B2:H166"/>
+  <dimension ref="B2:I166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,12 +513,12 @@
     <col min="2" max="2" width="4.5703125" style="4" customWidth="1"/>
     <col min="3" max="4" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="64" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
@@ -519,109 +528,112 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1537,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FDA99-8663-4048-8E3D-C383D51BFFF7}">
   <dimension ref="B2:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/2018-Personal-Robot book.xlsx
+++ b/2018-Personal-Robot book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole Tucker\Documents\Github\2018-Personal-Robot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\2018-Personal-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{147E1E40-8F0C-4B8A-A239-9CD7B3E9C747}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82E1429E-9E8D-4DA0-ADB4-0996DF3E993A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{D1A9F26E-08B2-41DE-A4F3-4A63F101E18F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12816" activeTab="1" xr2:uid="{D1A9F26E-08B2-41DE-A4F3-4A63F101E18F}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Motor</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>Ext. Cost</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Power Dist. Board OSHPARK</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>OSHPARK</t>
+  </si>
+  <si>
+    <t>DIGIKEY</t>
   </si>
 </sst>
 </file>
@@ -504,21 +519,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80474503-D0B3-41C8-932C-8F3FB8D90DA9}">
   <dimension ref="B2:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.5703125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
     <col min="9" max="9" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
@@ -544,7 +559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -552,7 +567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <f>B3+1</f>
         <v>2</v>
@@ -561,7 +576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
@@ -570,7 +585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -579,961 +594,961 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <f t="shared" ref="B69:B132" si="1">B68+1</f>
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="4">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="4">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="4">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="4">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="4">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="4">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="4">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="4">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="4">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="4">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="4">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="4">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="4">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="4">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="4">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="4">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="4">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="4">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="4">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="4">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="4">
         <f t="shared" ref="B133:B166" si="2">B132+1</f>
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="4">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="4">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="4">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="4">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="4">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="4">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="4">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="4">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="4">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="4">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="4">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="4">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="4">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="4">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="4">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="4">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="4">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="4">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -1547,975 +1562,2586 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FDA99-8663-4048-8E3D-C383D51BFFF7}">
-  <dimension ref="B2:D160"/>
+  <dimension ref="B2:G160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3*F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <f>B3+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G67" si="0">E4*F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B68" si="0">B4+1</f>
+        <f t="shared" ref="B5:B68" si="1">B4+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" ref="G68:G131" si="2">E68*F68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
-        <f t="shared" ref="B69:B132" si="1">B68+1</f>
+        <f t="shared" ref="B69:B132" si="3">B68+1</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E123" s="2">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E126" s="2">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2">
+        <f t="shared" ref="G132:G160" si="4">E132*F132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="4">
-        <f t="shared" ref="B133:B160" si="2">B132+1</f>
+        <f t="shared" ref="B133:B160" si="5">B132+1</f>
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E138" s="2">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E139" s="2">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E141" s="2">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E143" s="2">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E144" s="2">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E146" s="2">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E147" s="2">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E148" s="2">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E149" s="2">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E150" s="2">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E151" s="2">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E152" s="2">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E153" s="2">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E154" s="2">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E155" s="2">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E156" s="2">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E157" s="2">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E158" s="2">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E159" s="2">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>158</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2531,15 +4157,15 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="2" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +4188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2587,7 +4213,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -2612,7 +4238,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -2637,7 +4263,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2662,7 +4288,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -2687,7 +4313,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2712,7 +4338,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -2737,7 +4363,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F10" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2747,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F11" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2757,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F12" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2767,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F13" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2777,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F14" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2787,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F15" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2797,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F16" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2807,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F17" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2817,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F18" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2827,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F19" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2837,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -2853,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2863,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F22" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2873,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F23" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2883,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F24" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2893,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F25" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2903,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F26" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2913,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F27" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2923,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F28" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2933,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F29" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2943,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F30" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2953,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F31" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2963,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F32" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2973,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2983,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2993,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F35" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3003,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F36" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3013,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F37" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
